--- a/需求分析与设计/数据库设计.xlsx
+++ b/需求分析与设计/数据库设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhenghao/Documents/GitHub/SoftwareTraining/需求分析与设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566760F2-327D-1C49-87E4-60A1DBE40B39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F0721-00F0-D34F-9E53-D9B6AA33B106}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{0971FD1F-4DCA-A241-B86F-0F78A1F71E4C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{0971FD1F-4DCA-A241-B86F-0F78A1F71E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目实例id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,22 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目指导老师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目文稿编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立项、进行中、结题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目的板书编号，采用空格分割十进制整数表示，其中的数字必须出现在文稿表中，但是不能够使用外键约束。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,14 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目的最终得分情况，默认为-1表示未结题。结题后，分数在0~100之间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文稿的id，为一个自增长整数序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BOOL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,15 +247,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>proj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>doc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>项目成员id，采用空格分割十进制整数表示,不能够使用外键约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持一个web会话的ID，通过前端Cookie传输至后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目(分组)表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文稿得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生提交文稿的得分情况，需要老师打分。默认为-1，打分后，成绩在0~100之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布教师ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务所属阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段所属教师id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文稿所属任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段编号，阶段的唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段名称，如：准备阶段、终止阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师id，需要外键匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号，任务的唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布教师的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的信息，MarkDown格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务必须从属于某个阶段，该字段为阶段ID，需要外键约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的ID，需要外键约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mission.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师上传的附件名称，可以为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(32)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,13 +442,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,11 +478,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BAF770-3B14-8342-8B07-C48EED00B7C2}">
-  <dimension ref="A2:G28"/>
+  <dimension ref="A2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,30 +829,30 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -735,7 +866,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -752,7 +883,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -766,7 +897,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -778,279 +909,469 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>29</v>
+    <row r="7" spans="1:7">
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="b">
+      <c r="F11" s="1" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>62</v>
+      <c r="F17" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1">
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/需求分析与设计/数据库设计.xlsx
+++ b/需求分析与设计/数据库设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhenghao/Documents/GitHub/SoftwareTraining/需求分析与设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F0721-00F0-D34F-9E53-D9B6AA33B106}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C778B-F9C4-1B4F-ABE5-FDE6FB52DE1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{0971FD1F-4DCA-A241-B86F-0F78A1F71E4C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,78 @@
   </si>
   <si>
     <t>char(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-8编码汉字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F、M、U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课教室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课所处教室字符串，UTF-8编码中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级的唯一表示，为一个自增长序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级名称，随意的起一个名字，不超过20个字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BAF770-3B14-8342-8B07-C48EED00B7C2}">
-  <dimension ref="A2:G44"/>
+  <dimension ref="A2:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,274 +969,271 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>51</v>
+      <c r="F20" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="1" t="b">
+      <c r="F26" s="1" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -1173,108 +1242,128 @@
         <v>51</v>
       </c>
     </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="1" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="1" t="b">
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
-      <c r="B32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="B34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>91</v>
+      <c r="G36" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
@@ -1297,47 +1386,44 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F40" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>49</v>
+    <row r="41" spans="1:7" s="2" customFormat="1">
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>12</v>
@@ -1345,32 +1431,134 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
+        <v>94</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/需求分析与设计/数据库设计.xlsx
+++ b/需求分析与设计/数据库设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhenghao/Documents/GitHub/SoftwareTraining/需求分析与设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C778B-F9C4-1B4F-ABE5-FDE6FB52DE1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABED87E-243D-4A40-8B18-6E50ADD671C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{0971FD1F-4DCA-A241-B86F-0F78A1F71E4C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,6 +484,34 @@
   </si>
   <si>
     <t>班级名称，随意的起一个名字，不超过20个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务的截止时间，此处保存UNIX时间戳，若并非整天，则截止至整天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creat_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务创建的时间，保存UNIX时间戳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,9 +905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BAF770-3B14-8342-8B07-C48EED00B7C2}">
-  <dimension ref="A2:G53"/>
+  <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
@@ -1460,105 +1490,133 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>27</v>
+    <row r="45" spans="1:7">
+      <c r="B45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="1" t="b">
+      <c r="F50" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:7" s="2" customFormat="1">
+      <c r="B51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="B51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="B52" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/需求分析与设计/数据库设计.xlsx
+++ b/需求分析与设计/数据库设计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhenghao/Documents/GitHub/SoftwareTraining/需求分析与设计/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABED87E-243D-4A40-8B18-6E50ADD671C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31357664-E2B8-6343-A104-8BF0CA093E58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{0971FD1F-4DCA-A241-B86F-0F78A1F71E4C}"/>
   </bookViews>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BAF770-3B14-8342-8B07-C48EED00B7C2}">
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -1212,108 +1212,108 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:7" s="2" customFormat="1">
+      <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:7" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="1" t="b">
+      <c r="F26" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:7" s="2" customFormat="1">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:7" s="2" customFormat="1">
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:7" s="2" customFormat="1">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="1:7" s="2" customFormat="1">
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>49</v>
       </c>
     </row>

--- a/需求分析与设计/数据库设计.xlsx
+++ b/需求分析与设计/数据库设计.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhenghao/Documents/GitHub/SoftwareTraining/需求分析与设计/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31357664-E2B8-6343-A104-8BF0CA093E58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{0971FD1F-4DCA-A241-B86F-0F78A1F71E4C}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,14 +506,34 @@
   </si>
   <si>
     <t>任务创建的时间，保存UNIX时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业文档的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师发布作业的文稿ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc.id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,8 +563,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +581,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,6 +622,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,7 +693,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -703,7 +745,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -897,30 +939,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BAF770-3B14-8342-8B07-C48EED00B7C2}">
-  <dimension ref="A2:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="137.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -966,20 +1008,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="b">
+      <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1042,31 +1084,31 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:7" s="2" customFormat="1">
+      <c r="B10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1445,183 +1487,201 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="B42" s="1" t="s">
+    <row r="42" spans="1:7" s="4" customFormat="1">
+      <c r="B42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:7" s="4" customFormat="1">
+      <c r="B43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="B44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>91</v>
+    <row r="44" spans="1:7" s="6" customFormat="1">
+      <c r="B44" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>117</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>27</v>
+    <row r="47" spans="1:7">
+      <c r="B47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="1" t="b">
+      <c r="F51" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="2" customFormat="1">
-      <c r="B51" s="2" t="s">
+    <row r="52" spans="1:7" s="2" customFormat="1">
+      <c r="B52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="B52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>